--- a/RoomAcoustics/6_room_design_absorption/room_design_abs.xlsx
+++ b/RoomAcoustics/6_room_design_absorption/room_design_abs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessio\Desktop\Acoustics\CMLS\Homework3\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i7\Documents\GitHub\MusicalAcousticsHWs\RoomAcoustics\6_room_design_absorption\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883DB607-2CE7-4E9D-8CEA-BB62B647C461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E594E5A-8F18-4FE5-997E-BFC519129CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="CASE C_A" sheetId="6" r:id="rId5"/>
     <sheet name="CASE  C_B1" sheetId="7" r:id="rId6"/>
     <sheet name="CASE C_B2" sheetId="8" r:id="rId7"/>
+    <sheet name="D - FLOOR" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="area_S1">DATA!$B$5</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="54">
   <si>
     <t>classrooms</t>
   </si>
@@ -252,12 +253,18 @@
   <si>
     <t>courtain</t>
   </si>
+  <si>
+    <t>IMPACT SOUND REFERENCE CURVE</t>
+  </si>
+  <si>
+    <t>ref [dB]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +316,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +387,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -503,11 +537,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,6 +591,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -549,16 +621,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -573,39 +648,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,7 +754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -854,7 +920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -916,7 +982,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -964,7 +1030,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1040,7 +1106,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1206,7 +1272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1268,7 +1334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -1316,7 +1382,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1392,7 +1458,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1558,7 +1624,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1620,7 +1686,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -1668,7 +1734,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1744,7 +1810,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1910,7 +1976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -1972,7 +2038,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2020,7 +2086,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2096,7 +2162,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2262,7 +2328,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2324,7 +2390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2372,7 +2438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2448,7 +2514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2614,7 +2680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1503603455"/>
@@ -2676,7 +2742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2049483199"/>
@@ -2724,7 +2790,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7638,8 +7704,8 @@
       <xdr:rowOff>146526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="911257" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -7683,6 +7749,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -7765,7 +7832,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -8952,8 +9019,8 @@
       <xdr:rowOff>146526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="911257" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -8997,6 +9064,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -9079,7 +9147,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -10268,8 +10336,8 @@
       <xdr:rowOff>146526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="911257" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -10313,6 +10381,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -10395,7 +10464,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -11457,8 +11526,8 @@
       <xdr:rowOff>146526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="911257" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -11502,6 +11571,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -11584,7 +11654,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -12739,8 +12809,8 @@
       <xdr:rowOff>146526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="911257" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -12784,6 +12854,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12866,7 +12937,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -13977,8 +14048,8 @@
       <xdr:rowOff>146526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="911257" cy="315792"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -14022,6 +14093,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14104,7 +14176,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -14676,25 +14748,25 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2">
         <v>1</v>
       </c>
@@ -14705,23 +14777,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -14729,16 +14801,16 @@
         <f>B17*B18</f>
         <v>62.05</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="18">
         <f>C17*C18</f>
         <v>39.44</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="19">
         <f>D17*D18</f>
         <v>88.739999999999981</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -14746,16 +14818,16 @@
         <f>B17*B18</f>
         <v>62.05</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="18">
         <f>C17*C18</f>
         <v>39.44</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="19">
         <f>D17*D18</f>
         <v>88.739999999999981</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -14763,30 +14835,30 @@
         <f>B17*B16-B8</f>
         <v>23.7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="18">
         <f>C17*C16-C8</f>
         <v>14.52</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="19">
         <f>D17*D16-D8</f>
         <v>34.92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>1.8</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="18">
         <v>1.8</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="19">
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -14794,16 +14866,16 @@
         <f>B16*B18</f>
         <v>21.9</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="18">
         <f>C16*C18</f>
         <v>13.92</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="19">
         <f>D16*D18</f>
         <v>31.319999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -14811,16 +14883,16 @@
         <f>B17*B18</f>
         <v>62.05</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="18">
         <f>C17*C18</f>
         <v>39.44</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="19">
         <f>D17*D18</f>
         <v>88.739999999999981</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -14828,16 +14900,16 @@
         <f>B18*B16-B12</f>
         <v>12.45</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="18">
         <f>C18*C16-C12</f>
         <v>7.92</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="19">
         <f>D18*D16-D12</f>
         <v>19.979999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -14845,26 +14917,26 @@
         <f>3.15*3</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="18">
         <f>2*3</f>
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="19">
         <f>3.78*3</f>
         <v>11.34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
@@ -14875,49 +14947,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="18">
         <v>2.4</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="19">
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>8.5</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="18">
         <v>6.8</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="19">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>7.3</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="18">
         <v>5.8</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="19">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
@@ -14929,7 +15001,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -14937,16 +15009,16 @@
         <f>B18*B17*B16</f>
         <v>186.14999999999998</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="18">
         <f>C16*C17*C18</f>
         <v>94.655999999999992</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="19">
         <f>D16*D17*D18</f>
         <v>319.46399999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
@@ -14957,7 +15029,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>34</v>
       </c>
@@ -14965,11 +15037,11 @@
         <f>SUM(B5:B12)</f>
         <v>255.45</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="18">
         <f>SUM(C5:C12)</f>
         <v>162.47999999999999</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="19">
         <f>SUM(D5:D12)</f>
         <v>365.58</v>
       </c>
@@ -15001,27 +15073,27 @@
       <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -15052,16 +15124,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -15093,13 +15165,13 @@
       <c r="J4" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N4" s="19">
-        <f>1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
+      <c r="N4" s="30">
+        <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7)</f>
         <v>0.33664513603444896</v>
       </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -15131,18 +15203,18 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="19">
-        <f>1/(surface_A)*(C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7)</f>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
         <v>0.23879232726560964</v>
       </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B9" si="0">125*2^(A6)</f>
+        <f t="shared" ref="B6:B9" si="1">125*2^(A6)</f>
         <v>500</v>
       </c>
       <c r="C6" s="9">
@@ -15169,18 +15241,18 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="19">
-        <f>1/(surface_A)*(C6*area_S1+D6*area_S2+E6*area_S3+F6*area_S4+G6*area_S5_1+H6*area_S5_2+I6*area_S6+J6*area_S7)</f>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
         <v>0.37140144842434908</v>
       </c>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="C7" s="9">
@@ -15207,18 +15279,18 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="19">
-        <f>1/(surface_A)*(C7*area_S1+D7*area_S2+E7*area_S3+F7*area_S4+G7*area_S5_1+H7*area_S5_2+I7*area_S6+J7*area_S7)</f>
+      <c r="N7" s="30">
+        <f t="shared" si="0"/>
         <v>0.38464082990800547</v>
       </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="C8" s="9">
@@ -15245,18 +15317,18 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="19">
-        <f>1/(surface_A)*(C8*area_S1+D8*area_S2+E8*area_S3+F8*area_S4+G8*area_S5_1+H8*area_S5_2+I8*area_S6+J8*area_S7)</f>
+      <c r="N8" s="30">
+        <f t="shared" si="0"/>
         <v>0.3732178508514386</v>
       </c>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="C9" s="9">
@@ -15283,337 +15355,354 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="19">
-        <f>1/(surface_A)*(C9*area_S1+D9*area_S2+E9*area_S3+F9*area_S4+G9*area_S5_1+H9*area_S5_2+I9*area_S6+J9*area_S7)</f>
+      <c r="N9" s="30">
+        <f t="shared" si="0"/>
         <v>0.37348404775885685</v>
       </c>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="I11" s="29" t="s">
+      <c r="B11" s="36"/>
+      <c r="I11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="M11" s="16" t="s">
+      <c r="J11" s="25"/>
+      <c r="M11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="I12" s="26" t="s">
+      <c r="B12" s="36"/>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="36"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="I14" s="26">
+      <c r="B14" s="36"/>
+      <c r="I14" s="12">
         <v>125</v>
       </c>
-      <c r="J14" s="28">
-        <f>N4*surface_A</f>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J19" si="2">N4*surface_A</f>
         <v>85.995999999999981</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="23">
-        <f>(N4*surface_A)/(1-N4)</f>
+      <c r="N14" s="27">
+        <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>129.63800323391592</v>
       </c>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="I15" s="26">
+      <c r="B15" s="36"/>
+      <c r="I15" s="12">
         <v>250</v>
       </c>
-      <c r="J15" s="28">
-        <f>N5*surface_A</f>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
         <v>60.999499999999983</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="23">
-        <f>(N5*surface_A)/(1-N5)</f>
+      <c r="N15" s="27">
+        <f t="shared" si="3"/>
         <v>80.135161776390362</v>
       </c>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="I16" s="26">
+      <c r="B16" s="36"/>
+      <c r="I16" s="12">
         <v>500</v>
       </c>
-      <c r="J16" s="28">
-        <f>N6*surface_A</f>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
         <v>94.874499999999969</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="23">
-        <f>(N6*surface_A)/(1-N6)</f>
+      <c r="N16" s="27">
+        <f t="shared" si="3"/>
         <v>150.93019187235905</v>
       </c>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="I17" s="26">
+      <c r="B17" s="36"/>
+      <c r="I17" s="12">
         <v>1000</v>
       </c>
-      <c r="J17" s="28">
-        <f>N7*surface_A</f>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
         <v>98.256499999999988</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="23">
-        <f>(N7*surface_A)/(1-N7)</f>
+      <c r="N17" s="27">
+        <f t="shared" si="3"/>
         <v>159.67341477223931</v>
       </c>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="26">
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="12">
         <v>2000</v>
       </c>
-      <c r="J18" s="28">
-        <f>N8*surface_A</f>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
         <v>95.338499999999982</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="23">
-        <f>(N8*surface_A)/(1-N8)</f>
+      <c r="N18" s="27">
+        <f t="shared" si="3"/>
         <v>152.10787373174315</v>
       </c>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="27"/>
-      <c r="I19" s="26">
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="13"/>
+      <c r="I19" s="12">
         <v>4000</v>
       </c>
-      <c r="J19" s="28">
-        <f>N9*surface_A</f>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
         <v>95.40649999999998</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="23">
-        <f>(N9*surface_A)/(1-N9)</f>
+      <c r="N19" s="27">
+        <f t="shared" si="3"/>
         <v>152.2810387488401</v>
       </c>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="O19" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="I21" s="29" t="s">
+      <c r="F21" s="26"/>
+      <c r="I21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>125</v>
       </c>
-      <c r="D24" s="32">
-        <f>16*volume_A/J14</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D29" si="4">16*volume_A/J14</f>
         <v>34.634169031117729</v>
       </c>
-      <c r="F24" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:F29" si="5">-16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
         <v>28.40677577897246</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="12">
         <v>125</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
         <v>0.17980489864070795</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
         <v>250</v>
       </c>
-      <c r="D25" s="32">
-        <f>16*volume_A/J15</f>
+      <c r="D25" s="16">
+        <f t="shared" si="4"/>
         <v>48.826629726473172</v>
       </c>
-      <c r="F25" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N5))))</f>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
         <v>42.732140552527362</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="12">
         <v>250</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ref="J25:J29" si="1">(D25-F25)/D25</f>
+      <c r="J25" s="14">
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.12481896063863397</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>500</v>
       </c>
-      <c r="D26" s="32">
-        <f>16*volume_A/J16</f>
+      <c r="D26" s="16">
+        <f t="shared" si="4"/>
         <v>31.393050819767172</v>
       </c>
-      <c r="F26" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N6))))</f>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
         <v>25.113864632416895</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="12">
         <v>500</v>
       </c>
-      <c r="J26" s="28">
-        <f t="shared" si="1"/>
+      <c r="J26" s="14">
+        <f t="shared" si="6"/>
         <v>0.20001834875495694</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
         <v>1000</v>
       </c>
-      <c r="D27" s="32">
-        <f>16*volume_A/J17</f>
+      <c r="D27" s="16">
+        <f t="shared" si="4"/>
         <v>30.312498409774417</v>
       </c>
-      <c r="F27" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N7))))</f>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
         <v>24.012860858750724</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="12">
         <v>1000</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="1"/>
+      <c r="J27" s="14">
+        <f t="shared" si="6"/>
         <v>0.20782310536937937</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2000</v>
       </c>
-      <c r="D28" s="32">
-        <f>16*volume_A/J18</f>
+      <c r="D28" s="16">
+        <f t="shared" si="4"/>
         <v>31.240264950675751</v>
       </c>
-      <c r="F28" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N8))))</f>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
         <v>24.958297333402538</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="12">
         <v>2000</v>
       </c>
-      <c r="J28" s="28">
-        <f t="shared" si="1"/>
+      <c r="J28" s="14">
+        <f t="shared" si="6"/>
         <v>0.20108560625819308</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>4000</v>
       </c>
-      <c r="D29" s="32">
-        <f>16*volume_A/J19</f>
+      <c r="D29" s="16">
+        <f t="shared" si="4"/>
         <v>31.217998773668462</v>
       </c>
-      <c r="F29" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N9))))</f>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
         <v>24.935622887369519</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="12">
         <v>4000</v>
       </c>
-      <c r="J29" s="28">
-        <f t="shared" si="1"/>
+      <c r="J29" s="14">
+        <f t="shared" si="6"/>
         <v>0.20124210817760546</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C21:D21"/>
@@ -15625,23 +15714,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15660,27 +15732,27 @@
       <selection activeCell="F24" sqref="F24:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -15711,16 +15783,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -15752,13 +15824,13 @@
       <c r="J4" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N4" s="19">
-        <f>1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
+      <c r="N4" s="30">
+        <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1)</f>
         <v>0.33727227966518952</v>
       </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -15790,18 +15862,18 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="19">
-        <f>1/(surface_B1)*(C5*area_S1_B1+D5*area_S2_B1+E5*area_S3_B1+F5*area_S4_B1+G5*area_S5_B1_1+H5*area_S5_B1_2+I5*area_S6_B1+J5*area_S7_B1)</f>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
         <v>0.23946331856228459</v>
       </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B9" si="0">125*2^(A6)</f>
+        <f t="shared" ref="B6:B9" si="1">125*2^(A6)</f>
         <v>500</v>
       </c>
       <c r="C6" s="9">
@@ -15828,18 +15900,18 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="19">
-        <f>1/(surface_B1)*(C6*area_S1_B1+D6*area_S2_B1+E6*area_S3_B1+F6*area_S4_B1+G6*area_S5_B1_1+H6*area_S5_B1_2+I6*area_S6_B1+J6*area_S7_B1)</f>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
         <v>0.37174790743476122</v>
       </c>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="C7" s="9">
@@ -15866,18 +15938,18 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="19">
-        <f>1/(surface_B1)*(C7*area_S1_B1+D7*area_S2_B1+E7*area_S3_B1+F7*area_S4_B1+G7*area_S5_B1_1+H7*area_S5_B1_2+I7*area_S6_B1+J7*area_S7_B1)</f>
+      <c r="N7" s="30">
+        <f t="shared" si="0"/>
         <v>0.38482520925652386</v>
       </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="C8" s="9">
@@ -15904,18 +15976,18 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="19">
-        <f>1/(surface_B1)*(C8*area_S1_B1+D8*area_S2_B1+E8*area_S3_B1+F8*area_S4_B1+G8*area_S5_B1_1+H8*area_S5_B1_2+I8*area_S6_B1+J8*area_S7_B1)</f>
+      <c r="N8" s="30">
+        <f t="shared" si="0"/>
         <v>0.3732644017725259</v>
       </c>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="C9" s="9">
@@ -15942,337 +16014,356 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="19">
-        <f>1/(surface_B1)*(C9*area_S1_B1+D9*area_S2_B1+E9*area_S3_B1+F9*area_S4_B1+G9*area_S5_B1_1+H9*area_S5_B1_2+I9*area_S6_B1+J9*area_S7_B1)</f>
+      <c r="N9" s="30">
+        <f t="shared" si="0"/>
         <v>0.37336287543082219</v>
       </c>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="I11" s="29" t="s">
+      <c r="B11" s="36"/>
+      <c r="I11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="M11" s="16" t="s">
+      <c r="J11" s="25"/>
+      <c r="M11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="I12" s="26" t="s">
+      <c r="B12" s="36"/>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="36"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="I14" s="26">
+      <c r="B14" s="36"/>
+      <c r="I14" s="12">
         <v>125</v>
       </c>
-      <c r="J14" s="28">
-        <f>N4*surface_B1</f>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J19" si="2">N4*surface_B1</f>
         <v>54.79999999999999</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="23">
-        <f>(N4*surface_B1)/(1-N4)</f>
+      <c r="N14" s="27">
+        <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>82.688558692421964</v>
       </c>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="I15" s="26">
+      <c r="B15" s="36"/>
+      <c r="I15" s="12">
         <v>250</v>
       </c>
-      <c r="J15" s="28">
-        <f>N5*surface_B1</f>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
         <v>38.907999999999994</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="23">
-        <f>(N5*surface_B1)/(1-N5)</f>
+      <c r="N15" s="27">
+        <f t="shared" si="3"/>
         <v>51.158610688505476</v>
       </c>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="I16" s="26">
+      <c r="B16" s="36"/>
+      <c r="I16" s="12">
         <v>500</v>
       </c>
-      <c r="J16" s="28">
-        <f>N6*surface_B1</f>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
         <v>60.401600000000002</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="23">
-        <f>(N6*surface_B1)/(1-N6)</f>
+      <c r="N16" s="27">
+        <f t="shared" si="3"/>
         <v>96.142298155143493</v>
       </c>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="I17" s="26">
+      <c r="B17" s="36"/>
+      <c r="I17" s="12">
         <v>1000</v>
       </c>
-      <c r="J17" s="28">
-        <f>N7*surface_B1</f>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
         <v>62.526399999999995</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="23">
-        <f>(N7*surface_B1)/(1-N7)</f>
+      <c r="N17" s="27">
+        <f t="shared" si="3"/>
         <v>101.6400557058475</v>
       </c>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="26">
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="12">
         <v>2000</v>
       </c>
-      <c r="J18" s="28">
-        <f>N8*surface_B1</f>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
         <v>60.648000000000003</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="23">
-        <f>(N8*surface_B1)/(1-N8)</f>
+      <c r="N18" s="27">
+        <f t="shared" si="3"/>
         <v>96.768079189252916</v>
       </c>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="27"/>
-      <c r="I19" s="26">
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="13"/>
+      <c r="I19" s="12">
         <v>4000</v>
       </c>
-      <c r="J19" s="28">
-        <f>N9*surface_B1</f>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
         <v>60.663999999999987</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="23">
-        <f>(N9*surface_B1)/(1-N9)</f>
+      <c r="N19" s="27">
+        <f t="shared" si="3"/>
         <v>96.808819046122395</v>
       </c>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="O19" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="I21" s="29" t="s">
+      <c r="F21" s="26"/>
+      <c r="I21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>125</v>
       </c>
-      <c r="D24" s="32">
-        <f>16*volume_B1/J14</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D29" si="4">16*volume_B1/J14</f>
         <v>27.636788321167884</v>
       </c>
-      <c r="F24" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:F29" si="5">-16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
         <v>22.657572566380086</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="12">
         <v>125</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
         <v>0.18016622253368206</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
         <v>250</v>
       </c>
-      <c r="D25" s="32">
-        <f>16*volume_B1/J15</f>
+      <c r="D25" s="16">
+        <f t="shared" si="4"/>
         <v>38.925053973475897</v>
       </c>
-      <c r="F25" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N5))))</f>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
         <v>34.052134426526244</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="12">
         <v>250</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ref="J25:J29" si="1">(D25-F25)/D25</f>
+      <c r="J25" s="14">
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.12518722646525118</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>500</v>
       </c>
-      <c r="D26" s="32">
-        <f>16*volume_B1/J16</f>
+      <c r="D26" s="16">
+        <f t="shared" si="4"/>
         <v>25.073772880188603</v>
       </c>
-      <c r="F26" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N6))))</f>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
         <v>20.053456170233229</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="12">
         <v>500</v>
       </c>
-      <c r="J26" s="28">
-        <f t="shared" si="1"/>
+      <c r="J26" s="14">
+        <f t="shared" si="6"/>
         <v>0.20022183075296371</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
         <v>1000</v>
       </c>
-      <c r="D27" s="32">
-        <f>16*volume_B1/J17</f>
+      <c r="D27" s="16">
+        <f t="shared" si="4"/>
         <v>24.221704751912792</v>
       </c>
-      <c r="F27" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N7))))</f>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
         <v>19.185231809042925</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="12">
         <v>1000</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="1"/>
+      <c r="J27" s="14">
+        <f t="shared" si="6"/>
         <v>0.20793222419541449</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2000</v>
       </c>
-      <c r="D28" s="32">
-        <f>16*volume_B1/J18</f>
+      <c r="D28" s="16">
+        <f t="shared" si="4"/>
         <v>24.971903442817567</v>
       </c>
-      <c r="F28" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N8))))</f>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
         <v>19.949729708710059</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="12">
         <v>2000</v>
       </c>
-      <c r="J28" s="28">
-        <f t="shared" si="1"/>
+      <c r="J28" s="14">
+        <f t="shared" si="6"/>
         <v>0.20111297264974762</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>4000</v>
       </c>
-      <c r="D29" s="32">
-        <f>16*volume_B1/J19</f>
+      <c r="D29" s="16">
+        <f t="shared" si="4"/>
         <v>24.965317156798104</v>
       </c>
-      <c r="F29" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N9))))</f>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
         <v>19.943022688592663</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="12">
         <v>4000</v>
       </c>
-      <c r="J29" s="28">
-        <f t="shared" si="1"/>
+      <c r="J29" s="14">
+        <f t="shared" si="6"/>
         <v>0.20117086583207539</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="I21:J21"/>
@@ -16282,25 +16373,6 @@
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16318,27 +16390,27 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -16369,16 +16441,16 @@
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -16410,13 +16482,13 @@
       <c r="J4" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N4" s="19">
-        <f>1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
+      <c r="N4" s="30">
+        <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2)</f>
         <v>0.33350073855243711</v>
       </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -16448,18 +16520,18 @@
       <c r="J5" s="9">
         <v>0.25</v>
       </c>
-      <c r="N5" s="19">
-        <f>1/(surface_B2)*(C5*area_S1_B2+D5*area_S2_B2+E5*area_S3_B2+F5*area_S4_B2+G5*area_S5_B2_1+H5*area_S5_B2_2+I5*area_S6_B2+J5*area_S7_B2)</f>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
         <v>0.23728705071393397</v>
       </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B9" si="0">125*2^(A6)</f>
+        <f t="shared" ref="B6:B9" si="1">125*2^(A6)</f>
         <v>500</v>
       </c>
       <c r="C6" s="9">
@@ -16486,18 +16558,18 @@
       <c r="J6" s="9">
         <v>0.18</v>
       </c>
-      <c r="N6" s="19">
-        <f>1/(surface_B2)*(C6*area_S1_B2+D6*area_S2_B2+E6*area_S3_B2+F6*area_S4_B2+G6*area_S5_B2_1+H6*area_S5_B2_2+I6*area_S6_B2+J6*area_S7_B2)</f>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
         <v>0.37023633677991125</v>
       </c>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="C7" s="9">
@@ -16524,18 +16596,18 @@
       <c r="J7" s="9">
         <v>0.12</v>
       </c>
-      <c r="N7" s="19">
-        <f>1/(surface_B2)*(C7*area_S1_B2+D7*area_S2_B2+E7*area_S3_B2+F7*area_S4_B2+G7*area_S5_B2_1+H7*area_S5_B2_2+I7*area_S6_B2+J7*area_S7_B2)</f>
+      <c r="N7" s="30">
+        <f t="shared" si="0"/>
         <v>0.38379615952732637</v>
       </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="C8" s="9">
@@ -16562,18 +16634,18 @@
       <c r="J8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="19">
-        <f>1/(surface_B2)*(C8*area_S1_B2+D8*area_S2_B2+E8*area_S3_B2+F8*area_S4_B2+G8*area_S5_B2_1+H8*area_S5_B2_2+I8*area_S6_B2+J8*area_S7_B2)</f>
+      <c r="N8" s="30">
+        <f t="shared" si="0"/>
         <v>0.37277695716395859</v>
       </c>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="C9" s="9">
@@ -16600,337 +16672,356 @@
       <c r="J9" s="9">
         <v>0.04</v>
       </c>
-      <c r="N9" s="19">
-        <f>1/(surface_B2)*(C9*area_S1_B2+D9*area_S2_B2+E9*area_S3_B2+F9*area_S4_B2+G9*area_S5_B2_1+H9*area_S5_B2_2+I9*area_S6_B2+J9*area_S7_B2)</f>
+      <c r="N9" s="30">
+        <f t="shared" si="0"/>
         <v>0.37323978335795172</v>
       </c>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="I11" s="29" t="s">
+      <c r="B11" s="36"/>
+      <c r="I11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="M11" s="16" t="s">
+      <c r="J11" s="25"/>
+      <c r="M11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="I12" s="26" t="s">
+      <c r="B12" s="36"/>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="36"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="I14" s="26">
+      <c r="B14" s="36"/>
+      <c r="I14" s="12">
         <v>125</v>
       </c>
-      <c r="J14" s="28">
-        <f>N4*surface_B2</f>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J19" si="2">N4*surface_B2</f>
         <v>121.92119999999996</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="23">
-        <f>(N4*surface_B2)/(1-N4)</f>
+      <c r="N14" s="27">
+        <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>182.92773458623279</v>
       </c>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="I15" s="26">
+      <c r="B15" s="36"/>
+      <c r="I15" s="12">
         <v>250</v>
       </c>
-      <c r="J15" s="28">
-        <f>N5*surface_B2</f>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
         <v>86.747399999999971</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="23">
-        <f>(N5*surface_B2)/(1-N5)</f>
+      <c r="N15" s="27">
+        <f t="shared" si="3"/>
         <v>113.73531822319194</v>
       </c>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="I16" s="26">
+      <c r="B16" s="36"/>
+      <c r="I16" s="12">
         <v>500</v>
       </c>
-      <c r="J16" s="28">
-        <f>N6*surface_B2</f>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
         <v>135.35099999999994</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="23">
-        <f>(N6*surface_B2)/(1-N6)</f>
+      <c r="N16" s="27">
+        <f t="shared" si="3"/>
         <v>214.9234830538289</v>
       </c>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="I17" s="26">
+      <c r="B17" s="36"/>
+      <c r="I17" s="12">
         <v>1000</v>
       </c>
-      <c r="J17" s="28">
-        <f>N7*surface_B2</f>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
         <v>140.30819999999997</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="23">
-        <f>(N7*surface_B2)/(1-N7)</f>
+      <c r="N17" s="27">
+        <f t="shared" si="3"/>
         <v>227.69770453292415</v>
       </c>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="26">
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="12">
         <v>2000</v>
       </c>
-      <c r="J18" s="28">
-        <f>N8*surface_B2</f>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
         <v>136.27979999999997</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="23">
-        <f>(N8*surface_B2)/(1-N8)</f>
+      <c r="N18" s="27">
+        <f t="shared" si="3"/>
         <v>217.27486187975404</v>
       </c>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="27"/>
-      <c r="I19" s="26">
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="13"/>
+      <c r="I19" s="12">
         <v>4000</v>
       </c>
-      <c r="J19" s="28">
-        <f>N9*surface_B2</f>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
         <v>136.44899999999998</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="23">
-        <f>(N9*surface_B2)/(1-N9)</f>
+      <c r="N19" s="27">
+        <f t="shared" si="3"/>
         <v>217.70526650693267</v>
       </c>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="O19" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="I21" s="29" t="s">
+      <c r="F21" s="26"/>
+      <c r="I21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>125</v>
       </c>
-      <c r="D24" s="32">
-        <f>16*volume_B2/J14</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D29" si="4">16*volume_B2/J14</f>
         <v>41.923996811055019</v>
       </c>
-      <c r="F24" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:F29" si="5">-16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
         <v>34.461730302289901</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="12">
         <v>125</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
         <v>0.17799511202131804</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
         <v>250</v>
       </c>
-      <c r="D25" s="32">
-        <f>16*volume_B2/J15</f>
+      <c r="D25" s="16">
+        <f t="shared" si="4"/>
         <v>58.923080115369459</v>
       </c>
-      <c r="F25" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N5))))</f>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
         <v>51.617017763930036</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="12">
         <v>250</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ref="J25:J29" si="1">(D25-F25)/D25</f>
+      <c r="J25" s="14">
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.12399321856790907</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>500</v>
       </c>
-      <c r="D26" s="32">
-        <f>16*volume_B2/J16</f>
+      <c r="D26" s="16">
+        <f t="shared" si="4"/>
         <v>37.764213046080201</v>
       </c>
-      <c r="F26" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N6))))</f>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
         <v>30.236508098674754</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="12">
         <v>500</v>
       </c>
-      <c r="J26" s="28">
-        <f t="shared" si="1"/>
+      <c r="J26" s="14">
+        <f t="shared" si="6"/>
         <v>0.19933435229326982</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
         <v>1000</v>
       </c>
-      <c r="D27" s="32">
-        <f>16*volume_B2/J17</f>
+      <c r="D27" s="16">
+        <f t="shared" si="4"/>
         <v>36.42997344417504</v>
       </c>
-      <c r="F27" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N7))))</f>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
         <v>28.877188727573277</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="12">
         <v>1000</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="1"/>
+      <c r="J27" s="14">
+        <f t="shared" si="6"/>
         <v>0.20732336596883832</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2000</v>
       </c>
-      <c r="D28" s="32">
-        <f>16*volume_B2/J18</f>
+      <c r="D28" s="16">
+        <f t="shared" si="4"/>
         <v>37.506835202282367</v>
       </c>
-      <c r="F28" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N8))))</f>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
         <v>29.974470652400978</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="12">
         <v>2000</v>
       </c>
-      <c r="J28" s="28">
-        <f t="shared" si="1"/>
+      <c r="J28" s="14">
+        <f t="shared" si="6"/>
         <v>0.200826449612657</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>4000</v>
       </c>
-      <c r="D29" s="32">
-        <f>16*volume_B2/J19</f>
+      <c r="D29" s="16">
+        <f t="shared" si="4"/>
         <v>37.460325836026648</v>
       </c>
-      <c r="F29" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N9))))</f>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
         <v>29.927110505912459</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="12">
         <v>4000</v>
       </c>
-      <c r="J29" s="28">
-        <f t="shared" si="1"/>
+      <c r="J29" s="14">
+        <f t="shared" si="6"/>
         <v>0.20109849986593772</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="I21:J21"/>
@@ -16940,25 +17031,6 @@
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16976,27 +17048,27 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -17027,19 +17099,19 @@
       <c r="J2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -17074,13 +17146,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="19">
-        <f>1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
+      <c r="N4" s="30">
+        <f t="shared" ref="N4:N9" si="0">1/(surface_A)*(0.4*C4*area_S1+D4*area_S2+E4*area_S3+F4*area_S4+G4*area_S5_1+H4*area_S5_2+I4*area_S6+J4*area_S7 + 0.6*K4*area_S1)</f>
         <v>0.34333920532393808</v>
       </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -17115,18 +17187,18 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="19">
-        <f>1/(surface_A)*(0.4*C5*area_S1+D5*area_S2+E5*area_S3+F5*area_S4+G5*area_S5_1+H5*area_S5_2+I5*area_S6+J5*area_S7 + 0.6*K5*area_S1)</f>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
         <v>0.28621452339009584</v>
       </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B9" si="0">125*2^(A6)</f>
+        <f t="shared" ref="B6:B9" si="1">125*2^(A6)</f>
         <v>500</v>
       </c>
       <c r="C6" s="9">
@@ -17156,18 +17228,18 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="19">
-        <f>1/(surface_A)*(0.4*C6*area_S1+D6*area_S2+E6*area_S3+F6*area_S4+G6*area_S5_1+H6*area_S5_2+I6*area_S6+J6*area_S7 + 0.6*K6*area_S1)</f>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
         <v>0.44192875318066155</v>
       </c>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="C7" s="9">
@@ -17197,18 +17269,18 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="19">
-        <f>1/(surface_A)*(0.4*C7*area_S1+D7*area_S2+E7*area_S3+F7*area_S4+G7*area_S5_1+H7*area_S5_2+I7*area_S6+J7*area_S7 + 0.6*K7*area_S1)</f>
+      <c r="N7" s="30">
+        <f t="shared" si="0"/>
         <v>0.51905891563906836</v>
       </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="C8" s="9">
@@ -17238,18 +17310,18 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="19">
-        <f>1/(surface_A)*(0.4*C8*area_S1+D8*area_S2+E8*area_S3+F8*area_S4+G8*area_S5_1+H8*area_S5_2+I8*area_S6+J8*area_S7 + 0.6*K8*area_S1)</f>
+      <c r="N8" s="30">
+        <f t="shared" si="0"/>
         <v>0.51457545507927183</v>
       </c>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="C9" s="9">
@@ -17279,356 +17351,347 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="19">
-        <f>1/(surface_A)*(0.4*C9*area_S1+D9*area_S2+E9*area_S3+F9*area_S4+G9*area_S5_1+H9*area_S5_2+I9*area_S6+J9*area_S7 + 0.6*K9*area_S1)</f>
+      <c r="N9" s="30">
+        <f t="shared" si="0"/>
         <v>0.50827206889802301</v>
       </c>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="I11" s="29" t="s">
+      <c r="B11" s="36"/>
+      <c r="I11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="M11" s="16" t="s">
+      <c r="J11" s="25"/>
+      <c r="M11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="I12" s="26" t="s">
+      <c r="B12" s="36"/>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="36"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="I14" s="26">
+      <c r="B14" s="36"/>
+      <c r="I14" s="12">
         <v>125</v>
       </c>
-      <c r="J14" s="28">
-        <f>N4*surface_A</f>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J19" si="2">N4*surface_A</f>
         <v>87.705999999999975</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="23">
-        <f>(N4*surface_A)/(1-N4)</f>
+      <c r="N14" s="27">
+        <f t="shared" ref="N14:N19" si="3">(N4*surface_A)/(1-N4)</f>
         <v>133.56363088992748</v>
       </c>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="I15" s="26">
+      <c r="B15" s="36"/>
+      <c r="I15" s="12">
         <v>250</v>
       </c>
-      <c r="J15" s="28">
-        <f>N5*surface_A</f>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
         <v>73.113499999999974</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="23">
-        <f>(N5*surface_A)/(1-N5)</f>
+      <c r="N15" s="27">
+        <f t="shared" si="3"/>
         <v>102.43063552826776</v>
       </c>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="I16" s="26">
+      <c r="B16" s="36"/>
+      <c r="I16" s="12">
         <v>500</v>
       </c>
-      <c r="J16" s="28">
-        <f>N6*surface_A</f>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
         <v>112.89069999999998</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="23">
-        <f>(N6*surface_A)/(1-N6)</f>
+      <c r="N16" s="27">
+        <f t="shared" si="3"/>
         <v>202.28725390065742</v>
       </c>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="I17" s="26">
+      <c r="B17" s="36"/>
+      <c r="I17" s="12">
         <v>1000</v>
       </c>
-      <c r="J17" s="28">
-        <f>N7*surface_A</f>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
         <v>132.59360000000001</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="23">
-        <f>(N7*surface_A)/(1-N7)</f>
+      <c r="N17" s="27">
+        <f t="shared" si="3"/>
         <v>275.69613890688646</v>
       </c>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="26">
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="12">
         <v>2000</v>
       </c>
-      <c r="J18" s="28">
-        <f>N8*surface_A</f>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
         <v>131.44829999999999</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="23">
-        <f>(N8*surface_A)/(1-N8)</f>
+      <c r="N18" s="27">
+        <f t="shared" si="3"/>
         <v>270.79038622051144</v>
       </c>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="37"/>
-      <c r="F19" s="27"/>
-      <c r="I19" s="26">
+      <c r="F19" s="13"/>
+      <c r="I19" s="12">
         <v>4000</v>
       </c>
-      <c r="J19" s="28">
-        <f>N9*surface_A</f>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
         <v>129.83809999999997</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="23">
-        <f>(N9*surface_A)/(1-N9)</f>
+      <c r="N19" s="27">
+        <f t="shared" si="3"/>
         <v>264.04459008262739</v>
       </c>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="O19" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="I21" s="29" t="s">
+      <c r="F21" s="26"/>
+      <c r="I21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>125</v>
       </c>
-      <c r="D24" s="32">
-        <f>16*volume_A/J14</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D29" si="4">16*volume_A/J14</f>
         <v>33.958908170478651</v>
       </c>
-      <c r="F24" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:F29" si="5">-16*(volume_A/(surface_A*LN(ABS(1-N4))))</f>
         <v>27.721744776365384</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="12">
         <v>125</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
         <v>0.18366796019476836</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
         <v>250</v>
       </c>
-      <c r="D25" s="32">
-        <f>16*volume_A/J15</f>
+      <c r="D25" s="16">
+        <f t="shared" si="4"/>
         <v>40.736662859800184</v>
       </c>
-      <c r="F25" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N5))))</f>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
         <v>34.579966225272685</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="12">
         <v>250</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ref="J25:J29" si="1">(D25-F25)/D25</f>
+      <c r="J25" s="14">
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.15113404491959651</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>500</v>
       </c>
-      <c r="D26" s="32">
-        <f>16*volume_A/J16</f>
+      <c r="D26" s="16">
+        <f t="shared" si="4"/>
         <v>26.383041295695751</v>
       </c>
-      <c r="F26" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N6))))</f>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
         <v>19.989801782163106</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="12">
         <v>500</v>
       </c>
-      <c r="J26" s="28">
-        <f t="shared" si="1"/>
+      <c r="J26" s="14">
+        <f t="shared" si="6"/>
         <v>0.24232382619875092</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
         <v>1000</v>
       </c>
-      <c r="D27" s="32">
-        <f>16*volume_A/J17</f>
+      <c r="D27" s="16">
+        <f t="shared" si="4"/>
         <v>22.462622630353195</v>
       </c>
-      <c r="F27" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N7))))</f>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
         <v>15.927947087154459</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="12">
         <v>1000</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="1"/>
+      <c r="J27" s="14">
+        <f t="shared" si="6"/>
         <v>0.29091329408564198</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2000</v>
       </c>
-      <c r="D28" s="32">
-        <f>16*volume_A/J18</f>
+      <c r="D28" s="16">
+        <f t="shared" si="4"/>
         <v>22.658337916884431</v>
       </c>
-      <c r="F28" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N8))))</f>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
         <v>16.132444519195758</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="12">
         <v>2000</v>
       </c>
-      <c r="J28" s="28">
-        <f t="shared" si="1"/>
+      <c r="J28" s="14">
+        <f t="shared" si="6"/>
         <v>0.28801289051416873</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>4000</v>
       </c>
-      <c r="D29" s="32">
-        <f>16*volume_A/J19</f>
+      <c r="D29" s="16">
+        <f t="shared" si="4"/>
         <v>22.939337528814733</v>
       </c>
-      <c r="F29" s="32">
-        <f>-16*(volume_A/(surface_A*LN(ABS(1-N9))))</f>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
         <v>16.425664533854462</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="12">
         <v>4000</v>
       </c>
-      <c r="J29" s="28">
-        <f t="shared" si="1"/>
+      <c r="J29" s="14">
+        <f t="shared" si="6"/>
         <v>0.2839520969940072</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N7:O7"/>
@@ -17637,12 +17700,21 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="M11:P11"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17660,27 +17732,27 @@
       <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -17711,19 +17783,19 @@
       <c r="J2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -17758,13 +17830,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="19">
-        <f>1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
+      <c r="N4" s="30">
+        <f t="shared" ref="N4:N9" si="0">1/(surface_B1)*(0.4*C4*area_S1_B1+D4*area_S2_B1+E4*area_S3_B1+F4*area_S4_B1+G4*area_S5_B1_1+H4*area_S5_B1_2+I4*area_S6_B1+J4*area_S7_B1+0.6*K4*area_S1_B1)</f>
         <v>0.34397833579517478</v>
       </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -17799,18 +17871,18 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="19">
-        <f>1/(surface_B1)*(0.4*C5*area_S1_B1+D5*area_S2_B1+E5*area_S3_B1+F5*area_S4_B1+G5*area_S5_B1_1+H5*area_S5_B1_2+I5*area_S6_B1+J5*area_S7_B1+0.6*K5*area_S1_B1)</f>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
         <v>0.28684884293451501</v>
       </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B9" si="0">125*2^(A6)</f>
+        <f t="shared" ref="B6:B9" si="1">125*2^(A6)</f>
         <v>500</v>
       </c>
       <c r="C6" s="9">
@@ -17840,18 +17912,18 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="19">
-        <f>1/(surface_B1)*(0.4*C6*area_S1_B1+D6*area_S2_B1+E6*area_S3_B1+F6*area_S4_B1+G6*area_S5_B1_1+H6*area_S5_B1_2+I6*area_S6_B1+J6*area_S7_B1+0.6*K6*area_S1_B1)</f>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
         <v>0.44221171836533729</v>
       </c>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="C7" s="9">
@@ -17881,18 +17953,18 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="19">
-        <f>1/(surface_B1)*(0.4*C7*area_S1_B1+D7*area_S2_B1+E7*area_S3_B1+F7*area_S4_B1+G7*area_S5_B1_1+H7*area_S5_B1_2+I7*area_S6_B1+J7*area_S7_B1+0.6*K7*area_S1_B1)</f>
+      <c r="N7" s="30">
+        <f t="shared" si="0"/>
         <v>0.51912653865091085</v>
       </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="C8" s="9">
@@ -17922,18 +17994,18 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="19">
-        <f>1/(surface_B1)*(0.4*C8*area_S1_B1+D8*area_S2_B1+E8*area_S3_B1+F8*area_S4_B1+G8*area_S5_B1_1+H8*area_S5_B1_2+I8*area_S6_B1+J8*area_S7_B1+0.6*K8*area_S1_B1)</f>
+      <c r="N8" s="30">
+        <f t="shared" si="0"/>
         <v>0.51449926144756286</v>
       </c>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="C9" s="9">
@@ -17963,337 +18035,356 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="19">
-        <f>1/(surface_B1)*(0.4*C9*area_S1_B1+D9*area_S2_B1+E9*area_S3_B1+F9*area_S4_B1+G9*area_S5_B1_1+H9*area_S5_B1_2+I9*area_S6_B1+J9*area_S7_B1+0.6*K9*area_S1_B1)</f>
+      <c r="N9" s="30">
+        <f t="shared" si="0"/>
         <v>0.50803348104382073</v>
       </c>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="I11" s="29" t="s">
+      <c r="B11" s="36"/>
+      <c r="I11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="M11" s="16" t="s">
+      <c r="J11" s="25"/>
+      <c r="M11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="I12" s="26" t="s">
+      <c r="B12" s="36"/>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="36"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="I14" s="26">
+      <c r="B14" s="36"/>
+      <c r="I14" s="12">
         <v>125</v>
       </c>
-      <c r="J14" s="28">
-        <f>N4*surface_B1</f>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J19" si="2">N4*surface_B1</f>
         <v>55.889599999999994</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="23">
-        <f>(N4*surface_B1)/(1-N4)</f>
+      <c r="N14" s="27">
+        <f t="shared" ref="N14:N19" si="3">(N4*surface_B1)/(1-N4)</f>
         <v>85.194747444422759</v>
       </c>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="I15" s="26">
+      <c r="B15" s="36"/>
+      <c r="I15" s="12">
         <v>250</v>
       </c>
-      <c r="J15" s="28">
-        <f>N5*surface_B1</f>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
         <v>46.607199999999999</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="23">
-        <f>(N5*surface_B1)/(1-N5)</f>
+      <c r="N15" s="27">
+        <f t="shared" si="3"/>
         <v>65.35388681381653</v>
       </c>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="I16" s="26">
+      <c r="B16" s="36"/>
+      <c r="I16" s="12">
         <v>500</v>
       </c>
-      <c r="J16" s="28">
-        <f>N6*surface_B1</f>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
         <v>71.850560000000002</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="23">
-        <f>(N6*surface_B1)/(1-N6)</f>
+      <c r="N16" s="27">
+        <f t="shared" si="3"/>
         <v>128.81331925696551</v>
       </c>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="I17" s="26">
+      <c r="B17" s="36"/>
+      <c r="I17" s="12">
         <v>1000</v>
       </c>
-      <c r="J17" s="28">
-        <f>N7*surface_B1</f>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
         <v>84.347679999999997</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="23">
-        <f>(N7*surface_B1)/(1-N7)</f>
+      <c r="N17" s="27">
+        <f t="shared" si="3"/>
         <v>175.40514663330103</v>
       </c>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="26">
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="12">
         <v>2000</v>
       </c>
-      <c r="J18" s="28">
-        <f>N8*surface_B1</f>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
         <v>83.59584000000001</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="23">
-        <f>(N8*surface_B1)/(1-N8)</f>
+      <c r="N18" s="27">
+        <f t="shared" si="3"/>
         <v>172.18478441299246</v>
       </c>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="27"/>
-      <c r="I19" s="26">
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="13"/>
+      <c r="I19" s="12">
         <v>4000</v>
       </c>
-      <c r="J19" s="28">
-        <f>N9*surface_B1</f>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
         <v>82.545279999999991</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="23">
-        <f>(N9*surface_B1)/(1-N9)</f>
+      <c r="N19" s="27">
+        <f t="shared" si="3"/>
         <v>167.78637736392892</v>
       </c>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="O19" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="I21" s="29" t="s">
+      <c r="F21" s="26"/>
+      <c r="I21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>125</v>
       </c>
-      <c r="D24" s="32">
-        <f>16*volume_B1/J14</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D29" si="4">16*volume_B1/J14</f>
         <v>27.097993186567805</v>
       </c>
-      <c r="F24" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:F29" si="5">-16*(volume_B1/(surface_B1*LN(ABS(1-N4))))</f>
         <v>22.110945506434327</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="12">
         <v>125</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
         <v>0.1840375280116871</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
         <v>250</v>
       </c>
-      <c r="D25" s="32">
-        <f>16*volume_B1/J15</f>
+      <c r="D25" s="16">
+        <f t="shared" si="4"/>
         <v>32.494893492850885</v>
       </c>
-      <c r="F25" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N5))))</f>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
         <v>27.572237994759259</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="12">
         <v>250</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ref="J25:J29" si="1">(D25-F25)/D25</f>
+      <c r="J25" s="14">
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.15149012564619255</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>500</v>
       </c>
-      <c r="D26" s="32">
-        <f>16*volume_B1/J16</f>
+      <c r="D26" s="16">
+        <f t="shared" si="4"/>
         <v>21.078416090285167</v>
       </c>
-      <c r="F26" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N6))))</f>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
         <v>15.966955815921242</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="12">
         <v>500</v>
       </c>
-      <c r="J26" s="28">
-        <f t="shared" si="1"/>
+      <c r="J26" s="14">
+        <f t="shared" si="6"/>
         <v>0.24249736092455951</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
         <v>1000</v>
       </c>
-      <c r="D27" s="32">
-        <f>16*volume_B1/J17</f>
+      <c r="D27" s="16">
+        <f t="shared" si="4"/>
         <v>17.955396046459132</v>
       </c>
-      <c r="F27" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N7))))</f>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
         <v>12.731145764277096</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="12">
         <v>1000</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="1"/>
+      <c r="J27" s="14">
+        <f t="shared" si="6"/>
         <v>0.29095711777475808</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2000</v>
       </c>
-      <c r="D28" s="32">
-        <f>16*volume_B1/J18</f>
+      <c r="D28" s="16">
+        <f t="shared" si="4"/>
         <v>18.116882371180189</v>
       </c>
-      <c r="F28" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N8))))</f>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
         <v>12.899878125082752</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="12">
         <v>2000</v>
       </c>
-      <c r="J28" s="28">
-        <f t="shared" si="1"/>
+      <c r="J28" s="14">
+        <f t="shared" si="6"/>
         <v>0.28796368708539477</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>4000</v>
       </c>
-      <c r="D29" s="32">
-        <f>16*volume_B1/J19</f>
+      <c r="D29" s="16">
+        <f t="shared" si="4"/>
         <v>18.347457298588122</v>
       </c>
-      <c r="F29" s="32">
-        <f>-16*(volume_B1/(surface_B1*LN(ABS(1-N9))))</f>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
         <v>13.140471349610616</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="12">
         <v>4000</v>
       </c>
-      <c r="J29" s="28">
-        <f t="shared" si="1"/>
+      <c r="J29" s="14">
+        <f t="shared" si="6"/>
         <v>0.28379877735854958</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="I21:J21"/>
@@ -18303,25 +18394,6 @@
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18335,31 +18407,31 @@
   </sheetPr>
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
@@ -18390,19 +18462,19 @@
       <c r="J2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -18437,13 +18509,13 @@
       <c r="K4" s="9">
         <v>0.3</v>
       </c>
-      <c r="N4" s="19">
-        <f>1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
+      <c r="N4" s="30">
+        <f t="shared" ref="N4:N9" si="0">1/(surface_B2)*(0.4*C4*area_S1_B2+D4*area_S2_B2+E4*area_S3_B2+F4*area_S4_B2+G4*area_S5_B2_1+H4*area_S5_B2_2+I4*area_S6_B2+J4*area_S7_B2 + K4*0.6*area_S1_B2)</f>
         <v>0.3426292466765139</v>
       </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -18478,18 +18550,18 @@
       <c r="K5" s="9">
         <v>0.41</v>
       </c>
-      <c r="N5" s="19">
-        <f>1/(surface_B2)*(0.4*C5*area_S1_B2+D5*area_S2_B2+E5*area_S3_B2+F5*area_S4_B2+G5*area_S5_B2_1+H5*area_S5_B2_2+I5*area_S6_B2+J5*area_S7_B2 + K5*0.6*area_S1_B2)</f>
+      <c r="N5" s="30">
+        <f t="shared" si="0"/>
         <v>0.28408173313638591</v>
       </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B9" si="0">125*2^(A6)</f>
+        <f t="shared" ref="B6:B9" si="1">125*2^(A6)</f>
         <v>500</v>
       </c>
       <c r="C6" s="9">
@@ -18519,18 +18591,18 @@
       <c r="K6" s="9">
         <v>0.49</v>
       </c>
-      <c r="N6" s="19">
-        <f>1/(surface_B2)*(0.4*C6*area_S1_B2+D6*area_S2_B2+E6*area_S3_B2+F6*area_S4_B2+G6*area_S5_B2_1+H6*area_S5_B2_2+I6*area_S6_B2+J6*area_S7_B2 + K6*0.6*area_S1_B2)</f>
+      <c r="N6" s="30">
+        <f t="shared" si="0"/>
         <v>0.4385140324963071</v>
       </c>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="C7" s="9">
@@ -18560,18 +18632,18 @@
       <c r="K7" s="9">
         <v>0.84</v>
       </c>
-      <c r="N7" s="19">
-        <f>1/(surface_B2)*(0.4*C7*area_S1_B2+D7*area_S2_B2+E7*area_S3_B2+F7*area_S4_B2+G7*area_S5_B2_1+H7*area_S5_B2_2+I7*area_S6_B2+J7*area_S7_B2 + K7*0.6*area_S1_B2)</f>
+      <c r="N7" s="30">
+        <f t="shared" si="0"/>
         <v>0.51455243722304278</v>
       </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="C8" s="9">
@@ -18601,18 +18673,18 @@
       <c r="K8" s="9">
         <v>0.87</v>
       </c>
-      <c r="N8" s="19">
-        <f>1/(surface_B2)*(0.4*C8*area_S1_B2+D8*area_S2_B2+E8*area_S3_B2+F8*area_S4_B2+G8*area_S5_B2_1+H8*area_S5_B2_2+I8*area_S6_B2+J8*area_S7_B2 + K8*0.6*area_S1_B2)</f>
+      <c r="N8" s="30">
+        <f t="shared" si="0"/>
         <v>0.51028951255539134</v>
       </c>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="C9" s="9">
@@ -18642,337 +18714,356 @@
       <c r="K9" s="9">
         <v>0.84</v>
       </c>
-      <c r="N9" s="19">
-        <f>1/(surface_B2)*(0.4*C9*area_S1_B2+D9*area_S2_B2+E9*area_S3_B2+F9*area_S4_B2+G9*area_S5_B2_1+H9*area_S5_B2_2+I9*area_S6_B2+J9*area_S7_B2 + K9*0.6*area_S1_B2)</f>
+      <c r="N9" s="30">
+        <f t="shared" si="0"/>
         <v>0.50430625307730181</v>
       </c>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="I11" s="29" t="s">
+      <c r="B11" s="36"/>
+      <c r="I11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="M11" s="16" t="s">
+      <c r="J11" s="25"/>
+      <c r="M11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="I12" s="26" t="s">
+      <c r="B12" s="36"/>
+      <c r="I12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="25" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B13" s="36"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="I14" s="26">
+      <c r="B14" s="36"/>
+      <c r="I14" s="12">
         <v>125</v>
       </c>
-      <c r="J14" s="28">
-        <f>N4*surface_B2</f>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J19" si="2">N4*surface_B2</f>
         <v>125.25839999999995</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="11">
         <v>125</v>
       </c>
-      <c r="N14" s="23">
-        <f>(N4*surface_B2)/(1-N4)</f>
+      <c r="N14" s="27">
+        <f t="shared" ref="N14:N19" si="3">(N4*surface_B2)/(1-N4)</f>
         <v>190.54452813230262</v>
       </c>
-      <c r="O14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="I15" s="26">
+      <c r="B15" s="36"/>
+      <c r="I15" s="12">
         <v>250</v>
       </c>
-      <c r="J15" s="28">
-        <f>N5*surface_B2</f>
+      <c r="J15" s="14">
+        <f t="shared" si="2"/>
         <v>103.85459999999995</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="11">
         <v>250</v>
       </c>
-      <c r="N15" s="23">
-        <f>(N5*surface_B2)/(1-N5)</f>
+      <c r="N15" s="27">
+        <f t="shared" si="3"/>
         <v>145.06488353060104</v>
       </c>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="I16" s="26">
+      <c r="B16" s="36"/>
+      <c r="I16" s="12">
         <v>500</v>
       </c>
-      <c r="J16" s="28">
-        <f>N6*surface_B2</f>
+      <c r="J16" s="14">
+        <f t="shared" si="2"/>
         <v>160.31195999999994</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="11">
         <v>500</v>
       </c>
-      <c r="N16" s="23">
-        <f>(N6*surface_B2)/(1-N6)</f>
+      <c r="N16" s="27">
+        <f t="shared" si="3"/>
         <v>285.51374260113732</v>
       </c>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="I17" s="26">
+      <c r="B17" s="36"/>
+      <c r="I17" s="12">
         <v>1000</v>
       </c>
-      <c r="J17" s="28">
-        <f>N7*surface_B2</f>
+      <c r="J17" s="14">
+        <f t="shared" si="2"/>
         <v>188.11007999999998</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="11">
         <v>1000</v>
       </c>
-      <c r="N17" s="23">
-        <f>(N7*surface_B2)/(1-N7)</f>
+      <c r="N17" s="27">
+        <f t="shared" si="3"/>
         <v>387.49824785180488</v>
       </c>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I18" s="26">
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I18" s="12">
         <v>2000</v>
       </c>
-      <c r="J18" s="28">
-        <f>N8*surface_B2</f>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
         <v>186.55163999999996</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="11">
         <v>2000</v>
       </c>
-      <c r="N18" s="23">
-        <f>(N8*surface_B2)/(1-N8)</f>
+      <c r="N18" s="27">
+        <f t="shared" si="3"/>
         <v>380.94270958634695</v>
       </c>
-      <c r="O18" s="24"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F19" s="27"/>
-      <c r="I19" s="26">
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F19" s="13"/>
+      <c r="I19" s="12">
         <v>4000</v>
       </c>
-      <c r="J19" s="28">
-        <f>N9*surface_B2</f>
+      <c r="J19" s="14">
+        <f t="shared" si="2"/>
         <v>184.36427999999998</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="11">
         <v>4000</v>
       </c>
-      <c r="N19" s="23">
-        <f>(N9*surface_B2)/(1-N9)</f>
+      <c r="N19" s="27">
+        <f t="shared" si="3"/>
         <v>371.93182513305135</v>
       </c>
-      <c r="O19" s="24"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="O19" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="I21" s="29" t="s">
+      <c r="F21" s="26"/>
+      <c r="I21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
         <v>125</v>
       </c>
-      <c r="D24" s="32">
-        <f>16*volume_B2/J14</f>
+      <c r="D24" s="16">
+        <f t="shared" ref="D24:D29" si="4">16*volume_B2/J14</f>
         <v>40.807035695809631</v>
       </c>
-      <c r="F24" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24:F29" si="5">-16*(volume_B2/(surface_B2*LN(ABS(1-N4))))</f>
         <v>33.328836773953114</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="12">
         <v>125</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="14">
         <f>(D24-F24)/D24</f>
         <v>0.18325758767683373</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="11">
         <v>250</v>
       </c>
-      <c r="D25" s="32">
-        <f>16*volume_B2/J15</f>
+      <c r="D25" s="16">
+        <f t="shared" si="4"/>
         <v>49.217117007816711</v>
       </c>
-      <c r="F25" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N5))))</f>
+      <c r="F25" s="16">
+        <f t="shared" si="5"/>
         <v>41.837620517523959</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="12">
         <v>250</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ref="J25:J29" si="1">(D25-F25)/D25</f>
+      <c r="J25" s="14">
+        <f t="shared" ref="J25:J29" si="6">(D25-F25)/D25</f>
         <v>0.14993760177217882</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="11">
         <v>500</v>
       </c>
-      <c r="D26" s="32">
-        <f>16*volume_B2/J16</f>
+      <c r="D26" s="16">
+        <f t="shared" si="4"/>
         <v>31.884233715313574</v>
       </c>
-      <c r="F26" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N6))))</f>
+      <c r="F26" s="16">
+        <f t="shared" si="5"/>
         <v>24.224613767900287</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="12">
         <v>500</v>
       </c>
-      <c r="J26" s="28">
-        <f t="shared" si="1"/>
+      <c r="J26" s="14">
+        <f t="shared" si="6"/>
         <v>0.24023221055911634</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="11">
         <v>1000</v>
       </c>
-      <c r="D27" s="32">
-        <f>16*volume_B2/J17</f>
+      <c r="D27" s="16">
+        <f t="shared" si="4"/>
         <v>27.17251515708249</v>
       </c>
-      <c r="F27" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N7))))</f>
+      <c r="F27" s="16">
+        <f t="shared" si="5"/>
         <v>19.346884430177088</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="12">
         <v>1000</v>
       </c>
-      <c r="J27" s="28">
-        <f t="shared" si="1"/>
+      <c r="J27" s="14">
+        <f t="shared" si="6"/>
         <v>0.28799802600774921</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="11">
         <v>2000</v>
       </c>
-      <c r="D28" s="32">
-        <f>16*volume_B2/J18</f>
+      <c r="D28" s="16">
+        <f t="shared" si="4"/>
         <v>27.399512542478856</v>
       </c>
-      <c r="F28" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N8))))</f>
+      <c r="F28" s="16">
+        <f t="shared" si="5"/>
         <v>19.58381122659231</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="12">
         <v>2000</v>
       </c>
-      <c r="J28" s="28">
-        <f t="shared" si="1"/>
+      <c r="J28" s="14">
+        <f t="shared" si="6"/>
         <v>0.28524964828368632</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="11">
         <v>4000</v>
       </c>
-      <c r="D29" s="32">
-        <f>16*volume_B2/J19</f>
+      <c r="D29" s="16">
+        <f t="shared" si="4"/>
         <v>27.72458960054518</v>
       </c>
-      <c r="F29" s="32">
-        <f>-16*(volume_B2/(surface_B2*LN(ABS(1-N9))))</f>
+      <c r="F29" s="16">
+        <f t="shared" si="5"/>
         <v>19.922690073009235</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="12">
         <v>4000</v>
       </c>
-      <c r="J29" s="28">
-        <f t="shared" si="1"/>
+      <c r="J29" s="14">
+        <f t="shared" si="6"/>
         <v>0.28140721431571802</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F30" s="33"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="I21:J21"/>
@@ -18982,27 +19073,119 @@
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0920CBB5-40AE-455F-ADD0-22916ECDCA78}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="M1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="41"/>
+    </row>
+    <row r="4" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="42"/>
+    </row>
+    <row r="5" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <f>125*2^(M5)</f>
+        <v>125</v>
+      </c>
+      <c r="O5" s="42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <f>125*2^(M6)</f>
+        <v>250</v>
+      </c>
+      <c r="O6" s="42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="8">
+        <f>125*2^(M7)</f>
+        <v>500</v>
+      </c>
+      <c r="O7" s="42">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="8">
+        <f>125*2^(M8)</f>
+        <v>1000</v>
+      </c>
+      <c r="O8" s="42">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M9" s="8">
+        <v>4</v>
+      </c>
+      <c r="N9" s="8">
+        <f>125*2^(M9)</f>
+        <v>2000</v>
+      </c>
+      <c r="O9" s="42">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>